--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/LimitManagement.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/LimitManagement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_Bill_Payment_240920\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Auto_Konnect_Initialization\HBLAutomationAndroid\Resources\Feature\HBLMobile\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
     <t>QR Payments</t>
   </si>
   <si>
-    <t>90000</t>
+    <t>70000</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/LimitManagement.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/LimitManagement.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>limit_type</t>
   </si>
@@ -32,16 +32,97 @@
     <t>new_limit</t>
   </si>
   <si>
-    <t>As A user I want to verify Limit Reduction</t>
-  </si>
-  <si>
     <t>Case</t>
   </si>
   <si>
     <t>QR Payments</t>
   </si>
   <si>
-    <t>70000</t>
+    <t>Utility Bills and Other Payments</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>Mobile Prepaid and Postpaid Payments</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>Funds Transfer to Own HBL Account</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>Funds Transfer to HBL Account</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>Funds Transfer to Other Banks Account</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Utility Bills and Other Payments Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Mobile Prepaid and Postpaid Payments Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Own HBL Account Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to HBL Account Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of Funds Transfer to Other Banks Account Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>To verify Limits reduction of QR Payments Limit_PSD_Y_One</t>
   </si>
 </sst>
 </file>
@@ -77,9 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,7 +465,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -393,15 +480,15 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>90000</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -410,6 +497,262 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
